--- a/_CLUSTER/groups_time_area/PCA_time/1_group_PCA_time.xlsx
+++ b/_CLUSTER/groups_time_area/PCA_time/1_group_PCA_time.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_CLUSTER\groups_time_area\PCA_time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB941314-CF8E-40DE-B676-FAC611C22DCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3501A8-8799-4844-A130-098B78F20857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{814DA05E-AFF2-46A0-A419-5454826B0C11}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{814DA05E-AFF2-46A0-A419-5454826B0C11}"/>
   </bookViews>
   <sheets>
     <sheet name="4_groups" sheetId="1" r:id="rId1"/>
     <sheet name="5_groups" sheetId="2" r:id="rId2"/>
+    <sheet name="Birch(4)" sheetId="3" r:id="rId3"/>
+    <sheet name="K_means(4)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="48">
   <si>
     <t>Area1</t>
   </si>
@@ -634,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721757C2-BEBA-44B4-A990-79756D42F16B}">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="S70" sqref="S70"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2948,7 +2950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35F65A8-9A77-4E6E-BC16-B11A6DB02AE9}">
   <dimension ref="A1:X81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
@@ -5287,7 +5289,7 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C67:C72" si="36">C60+G60+K60+O60+S60+W60</f>
+        <f t="shared" ref="C68:C72" si="36">C60+G60+K60+O60+S60+W60</f>
         <v>753</v>
       </c>
       <c r="D68">
@@ -5570,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="S76">
-        <f t="shared" ref="S76:S81" si="37">S67+W67</f>
+        <f t="shared" ref="S76:S80" si="37">S67+W67</f>
         <v>102</v>
       </c>
       <c r="T76">
@@ -5643,4 +5645,4609 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B2027B-DDD6-44E7-B84E-9CC91B9FF6AA}">
+  <dimension ref="A1:X73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>236</v>
+      </c>
+      <c r="D3">
+        <f>C3/469*100</f>
+        <v>50.319829424307038</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>145</v>
+      </c>
+      <c r="H3">
+        <f>G3/298*100</f>
+        <v>48.65771812080537</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>289</v>
+      </c>
+      <c r="L3">
+        <f>K3/630*100</f>
+        <v>45.873015873015873</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>26</v>
+      </c>
+      <c r="T3">
+        <f>S3/57*100</f>
+        <v>45.614035087719294</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>C3+G3+K3+O3+S3</f>
+        <v>699</v>
+      </c>
+      <c r="X3">
+        <f>W3/$W$7*100</f>
+        <v>47.975291695264247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>135</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D7" si="0">C4/469*100</f>
+        <v>28.784648187633259</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>94</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H7" si="1">G4/298*100</f>
+        <v>31.543624161073826</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>232</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L7" si="2">K4/630*100</f>
+        <v>36.82539682539683</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>16</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T7" si="3">S4/57*100</f>
+        <v>28.07017543859649</v>
+      </c>
+      <c r="V4" s="5">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W7" si="4">C4+G4+K4+O4+S4</f>
+        <v>477</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X7" si="5">W4/$W$7*100</f>
+        <v>32.738503774879888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2.3454157782515992</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>2.0134228187919461</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>1.9047619047619049</v>
+      </c>
+      <c r="N5" s="4">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="3"/>
+        <v>3.5087719298245612</v>
+      </c>
+      <c r="V5" s="5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="5"/>
+        <v>2.1276595744680851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>87</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>18.550106609808104</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>53</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>17.785234899328859</v>
+      </c>
+      <c r="J6" s="4">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>97</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>15.396825396825397</v>
+      </c>
+      <c r="N6" s="5">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>13</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="3"/>
+        <v>22.807017543859647</v>
+      </c>
+      <c r="V6" s="5">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="5"/>
+        <v>17.158544955387782</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C7" s="6">
+        <f>SUM(C3:C6)</f>
+        <v>469</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G7" s="6">
+        <f>SUM(G3:G6)</f>
+        <v>298</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K7" s="6">
+        <f>SUM(K3:K6)</f>
+        <v>630</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="O7" s="6">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+      <c r="S7" s="6">
+        <f>SUM(S3:S6)</f>
+        <v>57</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="4"/>
+        <v>1457</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <f>G13/7*100</f>
+        <v>57.142857142857139</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>359</v>
+      </c>
+      <c r="L13">
+        <f>K13/714*100</f>
+        <v>50.280112044817926</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>157</v>
+      </c>
+      <c r="P13">
+        <f>O13/315*100</f>
+        <v>49.841269841269842</v>
+      </c>
+      <c r="V13" s="5">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f>C13+G13+K13+O13</f>
+        <v>521</v>
+      </c>
+      <c r="X13">
+        <f>W13/$W$17*100</f>
+        <v>50.241080038572804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H18" si="6">G14/7*100</f>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>191</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:L17" si="7">K14/714*100</f>
+        <v>26.750700280112046</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>94</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14:P17" si="8">O14/315*100</f>
+        <v>29.841269841269842</v>
+      </c>
+      <c r="V14" s="5">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ref="W14:W17" si="9">C14+G14+K14+O14</f>
+        <v>287</v>
+      </c>
+      <c r="X14">
+        <f t="shared" ref="X14:X17" si="10">W14/$W$17*100</f>
+        <v>27.675988428158149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>37</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="7"/>
+        <v>5.1820728291316529</v>
+      </c>
+      <c r="N15" s="4">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>12</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="8"/>
+        <v>3.8095238095238098</v>
+      </c>
+      <c r="V15" s="5">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="10"/>
+        <v>4.725168756027001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="J16" s="4">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>127</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="7"/>
+        <v>17.787114845938376</v>
+      </c>
+      <c r="N16" s="4">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>52</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="8"/>
+        <v>16.507936507936506</v>
+      </c>
+      <c r="V16" s="5">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="9"/>
+        <v>180</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="10"/>
+        <v>17.357762777242044</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="G17" s="6">
+        <f>SUM(G13:G16)</f>
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="K17" s="6">
+        <f>SUM(K13:K16)</f>
+        <v>714</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="O17" s="6">
+        <f>SUM(O13:O16)</f>
+        <v>315</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="9"/>
+        <v>1037</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>57</v>
+      </c>
+      <c r="H23">
+        <f>G23/99*100</f>
+        <v>57.575757575757578</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>520</v>
+      </c>
+      <c r="L23">
+        <f>K23/1001*100</f>
+        <v>51.94805194805194</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>6</v>
+      </c>
+      <c r="P23">
+        <f>O23/7*100</f>
+        <v>85.714285714285708</v>
+      </c>
+      <c r="V23" s="5">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <f>C23+G23+K23+O23</f>
+        <v>584</v>
+      </c>
+      <c r="X23">
+        <f>W23/$W$27*100</f>
+        <v>52.707581227436826</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>25</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H27" si="11">G24/99*100</f>
+        <v>25.252525252525253</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>264</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24:L27" si="12">K24/1001*100</f>
+        <v>26.373626373626376</v>
+      </c>
+      <c r="N24" s="4">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24:P27" si="13">O24/7*100</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="5">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <f t="shared" ref="W24:W27" si="14">C24+G24+K24+O24</f>
+        <v>289</v>
+      </c>
+      <c r="X24">
+        <f t="shared" ref="X24:X27" si="15">W24/$W$27*100</f>
+        <v>26.083032490974727</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B25" s="5">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="11"/>
+        <v>4.0404040404040407</v>
+      </c>
+      <c r="J25" s="4">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>36</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="12"/>
+        <v>3.5964035964035967</v>
+      </c>
+      <c r="N25" s="4">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="5">
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="15"/>
+        <v>3.6101083032490973</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>13</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="11"/>
+        <v>13.131313131313133</v>
+      </c>
+      <c r="J26" s="4">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>181</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="12"/>
+        <v>18.081918081918083</v>
+      </c>
+      <c r="N26" s="4">
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="13"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="V26" s="5">
+        <v>3</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="14"/>
+        <v>195</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="15"/>
+        <v>17.599277978339352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="G27" s="6">
+        <f>SUM(G23:G26)</f>
+        <v>99</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="K27" s="6">
+        <f>SUM(K23:K26)</f>
+        <v>1001</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="O27" s="6">
+        <v>7</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="14"/>
+        <v>1108</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>243</v>
+      </c>
+      <c r="H33">
+        <f>G33/445*100</f>
+        <v>54.606741573033716</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <f>K33/3*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="N33" s="4">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>12</v>
+      </c>
+      <c r="P33">
+        <f>O33/15*100</f>
+        <v>80</v>
+      </c>
+      <c r="V33" s="5">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f>C33+G33+K33+O33</f>
+        <v>256</v>
+      </c>
+      <c r="X33">
+        <f>W33/$W$37*100</f>
+        <v>55.172413793103445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>109</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34:H37" si="16">G34/445*100</f>
+        <v>24.49438202247191</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ref="L34:L37" si="17">K34/3*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="N34" s="4">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ref="P34:P37" si="18">O34/15*100</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="V34" s="5">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <f t="shared" ref="W34:W37" si="19">C34+G34+K34+O34</f>
+        <v>112</v>
+      </c>
+      <c r="X34">
+        <f t="shared" ref="X34:X37" si="20">W34/$W$37*100</f>
+        <v>24.137931034482758</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B35" s="5">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="16"/>
+        <v>2.2471910112359552</v>
+      </c>
+      <c r="J35" s="5">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="4">
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="5">
+        <v>2</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="20"/>
+        <v>2.1551724137931036</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B36" s="5">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="F36" s="4">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>83</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="16"/>
+        <v>18.651685393258425</v>
+      </c>
+      <c r="J36" s="5">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="17"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="N36" s="4">
+        <v>3</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="18"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="V36" s="5">
+        <v>3</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="19"/>
+        <v>86</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="20"/>
+        <v>18.53448275862069</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="G37" s="6">
+        <f>SUM(G33:G36)</f>
+        <v>445</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="K37" s="6">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="O37" s="6">
+        <v>15</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="19"/>
+        <v>464</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>77</v>
+      </c>
+      <c r="D43">
+        <f>C43/164*100</f>
+        <v>46.951219512195117</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43">
+        <f>G43/13*100</f>
+        <v>38.461538461538467</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>50</v>
+      </c>
+      <c r="V43" s="5">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <f>C43+G43+K43</f>
+        <v>83</v>
+      </c>
+      <c r="X43">
+        <f>W43/$W$47*100</f>
+        <v>46.368715083798882</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>46</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:D47" si="21">C44/164*100</f>
+        <v>28.04878048780488</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ref="H44:H47" si="22">G44/13*100</f>
+        <v>30.76923076923077</v>
+      </c>
+      <c r="J44" s="4">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>50</v>
+      </c>
+      <c r="V44" s="5">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <f t="shared" ref="W44:W47" si="23">C44+G44+K44</f>
+        <v>51</v>
+      </c>
+      <c r="X44">
+        <f t="shared" ref="X44:X47" si="24">W44/$W$47*100</f>
+        <v>28.491620111731841</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="21"/>
+        <v>4.2682926829268295</v>
+      </c>
+      <c r="F45" s="4">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="4">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="V45" s="5">
+        <v>2</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="24"/>
+        <v>3.9106145251396649</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>34</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="21"/>
+        <v>20.73170731707317</v>
+      </c>
+      <c r="F46" s="4">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="22"/>
+        <v>30.76923076923077</v>
+      </c>
+      <c r="J46" s="5">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="V46" s="5">
+        <v>3</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="23"/>
+        <v>38</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="24"/>
+        <v>21.229050279329609</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C47" s="6">
+        <f>SUM(C43:C46)</f>
+        <v>164</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+      <c r="G47" s="6">
+        <f>SUM(G43:G46)</f>
+        <v>13</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="K47" s="6">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>100</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="23"/>
+        <v>179</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="24"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X51" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B52" s="5">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f>C3+C13+C23</f>
+        <v>238</v>
+      </c>
+      <c r="D52">
+        <f>C52/$C$56*100</f>
+        <v>50.530785562632694</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>145</v>
+      </c>
+      <c r="H52">
+        <v>48.65771812080537</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <f>K3+G13+G23+C33</f>
+        <v>350</v>
+      </c>
+      <c r="L52">
+        <f>K52/$K$56*100</f>
+        <v>47.489823609226598</v>
+      </c>
+      <c r="N52" s="5">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f>O3+K13+K23+G33+C43</f>
+        <v>1202</v>
+      </c>
+      <c r="P52">
+        <f>O52/$O$56*100</f>
+        <v>51.654490760636008</v>
+      </c>
+      <c r="R52" s="5">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f>O13+O23+K33+G43</f>
+        <v>169</v>
+      </c>
+      <c r="T52">
+        <f>S52/$S$56*100</f>
+        <v>50</v>
+      </c>
+      <c r="V52" s="5">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <f>S3+O33+K43</f>
+        <v>39</v>
+      </c>
+      <c r="X52">
+        <f>W52/$W$56*100</f>
+        <v>52.702702702702695</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:C56" si="25">C4+C14+C24</f>
+        <v>135</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:D56" si="26">C53/$C$56*100</f>
+        <v>28.662420382165603</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>94</v>
+      </c>
+      <c r="H53">
+        <v>31.543624161073826</v>
+      </c>
+      <c r="J53" s="5">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ref="K53:K56" si="27">K4+G14+G24+C34</f>
+        <v>259</v>
+      </c>
+      <c r="L53">
+        <f t="shared" ref="L53:L56" si="28">K53/$K$56*100</f>
+        <v>35.142469470827677</v>
+      </c>
+      <c r="N53" s="5">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <f t="shared" ref="O53:O56" si="29">O4+K14+K24+G34+C44</f>
+        <v>610</v>
+      </c>
+      <c r="P53">
+        <f t="shared" ref="P53:P56" si="30">O53/$O$56*100</f>
+        <v>26.214009454232919</v>
+      </c>
+      <c r="R53" s="5">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <f t="shared" ref="S53:S56" si="31">O14+O24+K34+G44</f>
+        <v>99</v>
+      </c>
+      <c r="T53">
+        <f t="shared" ref="T53:T56" si="32">S53/$S$56*100</f>
+        <v>29.289940828402365</v>
+      </c>
+      <c r="V53" s="5">
+        <v>1</v>
+      </c>
+      <c r="W53">
+        <f t="shared" ref="W53:W56" si="33">S4+O34+K44</f>
+        <v>19</v>
+      </c>
+      <c r="X53">
+        <f t="shared" ref="X53:X56" si="34">W53/$W$56*100</f>
+        <v>25.675675675675674</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B54" s="5">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="25"/>
+        <v>11</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="26"/>
+        <v>2.335456475583864</v>
+      </c>
+      <c r="F54" s="4">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>6</v>
+      </c>
+      <c r="H54">
+        <v>2.0134228187919461</v>
+      </c>
+      <c r="J54" s="5">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="28"/>
+        <v>2.1709633649932156</v>
+      </c>
+      <c r="N54" s="5">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="29"/>
+        <v>90</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="30"/>
+        <v>3.867640739149119</v>
+      </c>
+      <c r="R54" s="5">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="31"/>
+        <v>12</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="32"/>
+        <v>3.5502958579881656</v>
+      </c>
+      <c r="V54" s="5">
+        <v>2</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="34"/>
+        <v>2.7027027027027026</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B55" s="5">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="25"/>
+        <v>87</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="26"/>
+        <v>18.471337579617835</v>
+      </c>
+      <c r="F55" s="4">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>53</v>
+      </c>
+      <c r="H55">
+        <v>17.785234899328859</v>
+      </c>
+      <c r="J55" s="5">
+        <v>3</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="27"/>
+        <v>112</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="28"/>
+        <v>15.19674355495251</v>
+      </c>
+      <c r="N55" s="5">
+        <v>3</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="29"/>
+        <v>425</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="30"/>
+        <v>18.263859045981949</v>
+      </c>
+      <c r="R55" s="5">
+        <v>3</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="31"/>
+        <v>58</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="32"/>
+        <v>17.159763313609467</v>
+      </c>
+      <c r="V55" s="5">
+        <v>3</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="33"/>
+        <v>14</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="34"/>
+        <v>18.918918918918919</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <f t="shared" si="25"/>
+        <v>471</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="26"/>
+        <v>100</v>
+      </c>
+      <c r="G56">
+        <v>298</v>
+      </c>
+      <c r="H56">
+        <v>100</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="27"/>
+        <v>737</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="28"/>
+        <v>100</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="29"/>
+        <v>2327</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="31"/>
+        <v>338</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="32"/>
+        <v>100</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="33"/>
+        <v>74</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="34"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B61" s="5">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <f>C52+G52+K52+O52+S52+W52</f>
+        <v>2143</v>
+      </c>
+      <c r="D61">
+        <f>C61/$C$65*100</f>
+        <v>50.482921083627794</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>699</v>
+      </c>
+      <c r="H61">
+        <v>47.975291695264247</v>
+      </c>
+      <c r="J61" s="5">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>521</v>
+      </c>
+      <c r="L61">
+        <v>50.241080038572804</v>
+      </c>
+      <c r="N61" s="5">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>584</v>
+      </c>
+      <c r="P61">
+        <v>52.707581227436826</v>
+      </c>
+      <c r="R61" s="5">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>256</v>
+      </c>
+      <c r="T61">
+        <v>55.172413793103445</v>
+      </c>
+      <c r="V61" s="5">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>83</v>
+      </c>
+      <c r="X61">
+        <v>46.368715083798882</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B62" s="5">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62:C65" si="35">C53+G53+K53+O53+S53+W53</f>
+        <v>1216</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ref="D62:D65" si="36">C62/$C$65*100</f>
+        <v>28.645465253239106</v>
+      </c>
+      <c r="F62" s="5">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>477</v>
+      </c>
+      <c r="H62">
+        <v>32.738503774879888</v>
+      </c>
+      <c r="J62" s="5">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>287</v>
+      </c>
+      <c r="L62">
+        <v>27.675988428158149</v>
+      </c>
+      <c r="N62" s="5">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>289</v>
+      </c>
+      <c r="P62">
+        <v>26.083032490974727</v>
+      </c>
+      <c r="R62" s="5">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>112</v>
+      </c>
+      <c r="T62">
+        <v>24.137931034482758</v>
+      </c>
+      <c r="V62" s="5">
+        <v>1</v>
+      </c>
+      <c r="W62">
+        <v>51</v>
+      </c>
+      <c r="X62">
+        <v>28.491620111731841</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B63" s="5">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="35"/>
+        <v>137</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="36"/>
+        <v>3.2273262661955244</v>
+      </c>
+      <c r="F63" s="5">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>31</v>
+      </c>
+      <c r="H63">
+        <v>2.1276595744680851</v>
+      </c>
+      <c r="J63" s="5">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>49</v>
+      </c>
+      <c r="L63">
+        <v>4.725168756027001</v>
+      </c>
+      <c r="N63" s="5">
+        <v>2</v>
+      </c>
+      <c r="O63">
+        <v>40</v>
+      </c>
+      <c r="P63">
+        <v>3.6101083032490973</v>
+      </c>
+      <c r="R63" s="5">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>10</v>
+      </c>
+      <c r="T63">
+        <v>2.1551724137931036</v>
+      </c>
+      <c r="V63" s="5">
+        <v>2</v>
+      </c>
+      <c r="W63">
+        <v>7</v>
+      </c>
+      <c r="X63">
+        <v>3.9106145251396649</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B64" s="5">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="35"/>
+        <v>749</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="36"/>
+        <v>17.644287396937575</v>
+      </c>
+      <c r="F64" s="5">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>250</v>
+      </c>
+      <c r="H64">
+        <v>17.158544955387782</v>
+      </c>
+      <c r="J64" s="5">
+        <v>3</v>
+      </c>
+      <c r="K64">
+        <v>180</v>
+      </c>
+      <c r="L64">
+        <v>17.357762777242044</v>
+      </c>
+      <c r="N64" s="5">
+        <v>3</v>
+      </c>
+      <c r="O64">
+        <v>195</v>
+      </c>
+      <c r="P64">
+        <v>17.599277978339352</v>
+      </c>
+      <c r="R64" s="5">
+        <v>3</v>
+      </c>
+      <c r="S64">
+        <v>86</v>
+      </c>
+      <c r="T64">
+        <v>18.53448275862069</v>
+      </c>
+      <c r="V64" s="5">
+        <v>3</v>
+      </c>
+      <c r="W64">
+        <v>38</v>
+      </c>
+      <c r="X64">
+        <v>21.229050279329609</v>
+      </c>
+    </row>
+    <row r="65" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <f t="shared" si="35"/>
+        <v>4245</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="36"/>
+        <v>100</v>
+      </c>
+      <c r="G65">
+        <v>1457</v>
+      </c>
+      <c r="H65">
+        <v>100</v>
+      </c>
+      <c r="K65">
+        <v>1037</v>
+      </c>
+      <c r="L65">
+        <v>100</v>
+      </c>
+      <c r="O65">
+        <v>1108</v>
+      </c>
+      <c r="P65">
+        <v>100</v>
+      </c>
+      <c r="S65">
+        <v>464</v>
+      </c>
+      <c r="T65">
+        <v>100</v>
+      </c>
+      <c r="W65">
+        <v>179</v>
+      </c>
+      <c r="X65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R69" s="5">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <f>S61+W61</f>
+        <v>339</v>
+      </c>
+      <c r="T69">
+        <f>S69/$S$73*100</f>
+        <v>52.721617418351471</v>
+      </c>
+    </row>
+    <row r="70" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R70" s="5">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <f t="shared" ref="S70:S73" si="37">S62+W62</f>
+        <v>163</v>
+      </c>
+      <c r="T70">
+        <f t="shared" ref="T70:T73" si="38">S70/$S$73*100</f>
+        <v>25.34992223950233</v>
+      </c>
+    </row>
+    <row r="71" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R71" s="5">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="37"/>
+        <v>17</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="38"/>
+        <v>2.6438569206842923</v>
+      </c>
+    </row>
+    <row r="72" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R72" s="5">
+        <v>3</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="37"/>
+        <v>124</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="38"/>
+        <v>19.284603421461895</v>
+      </c>
+    </row>
+    <row r="73" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="S73">
+        <f t="shared" si="37"/>
+        <v>643</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2FCB62-CFD1-49DF-8B59-AB143A6F6F37}">
+  <dimension ref="A1:X73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>156</v>
+      </c>
+      <c r="D3">
+        <f>C3/469*100</f>
+        <v>33.262260127931768</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>55</v>
+      </c>
+      <c r="H3">
+        <f>G3/298*100</f>
+        <v>18.456375838926174</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>147</v>
+      </c>
+      <c r="L3">
+        <f>K3/630*100</f>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>17</v>
+      </c>
+      <c r="T3">
+        <f>S3/57*100</f>
+        <v>29.82456140350877</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>C3+G3+K3+O3+S3</f>
+        <v>375</v>
+      </c>
+      <c r="X3">
+        <f>W3/$W$7*100</f>
+        <v>25.737817433081673</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>93</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D7" si="0">C4/469*100</f>
+        <v>19.829424307036248</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>75</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H7" si="1">G4/298*100</f>
+        <v>25.167785234899331</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>183</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L7" si="2">K4/630*100</f>
+        <v>29.047619047619051</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>9</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T7" si="3">S4/57*100</f>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="V4" s="5">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W7" si="4">C4+G4+K4+O4+S4</f>
+        <v>360</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X7" si="5">W4/$W$7*100</f>
+        <v>24.708304735758407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>77</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>16.417910447761194</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>62</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>20.80536912751678</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>15.873015873015872</v>
+      </c>
+      <c r="N5" s="4">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>16</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="3"/>
+        <v>28.07017543859649</v>
+      </c>
+      <c r="V5" s="5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="5"/>
+        <v>17.50171585449554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>143</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>30.49040511727079</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>106</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>35.570469798657719</v>
+      </c>
+      <c r="J6" s="4">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>200</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>31.746031746031743</v>
+      </c>
+      <c r="N6" s="5">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+      <c r="R6" s="4">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>15</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="3"/>
+        <v>26.315789473684209</v>
+      </c>
+      <c r="V6" s="5">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="4"/>
+        <v>467</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="5"/>
+        <v>32.052161976664379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C7" s="6">
+        <f>SUM(C3:C6)</f>
+        <v>469</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G7" s="6">
+        <f>SUM(G3:G6)</f>
+        <v>298</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K7" s="6">
+        <f>SUM(K3:K6)</f>
+        <v>630</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="O7" s="6">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+      <c r="S7" s="6">
+        <f>SUM(S3:S6)</f>
+        <v>57</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="4"/>
+        <v>1457</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f>G13/7*100</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>297</v>
+      </c>
+      <c r="L13">
+        <f>K13/714*100</f>
+        <v>41.596638655462186</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>109</v>
+      </c>
+      <c r="P13">
+        <f>O13/315*100</f>
+        <v>34.603174603174601</v>
+      </c>
+      <c r="V13" s="5">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f>C13+G13+K13+O13</f>
+        <v>407</v>
+      </c>
+      <c r="X13">
+        <f>W13/$W$17*100</f>
+        <v>39.247830279652845</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H17" si="6">G14/7*100</f>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>144</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:L17" si="7">K14/714*100</f>
+        <v>20.168067226890756</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>77</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14:P17" si="8">O14/315*100</f>
+        <v>24.444444444444443</v>
+      </c>
+      <c r="V14" s="5">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ref="W14:W17" si="9">C14+G14+K14+O14</f>
+        <v>223</v>
+      </c>
+      <c r="X14">
+        <f t="shared" ref="X14:X17" si="10">W14/$W$17*100</f>
+        <v>21.504339440694313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="6"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="J15" s="4">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>106</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="7"/>
+        <v>14.845938375350141</v>
+      </c>
+      <c r="N15" s="4">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>44</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="8"/>
+        <v>13.968253968253968</v>
+      </c>
+      <c r="V15" s="5">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="9"/>
+        <v>152</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="10"/>
+        <v>14.657666345226616</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="J16" s="4">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>167</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="7"/>
+        <v>23.389355742296917</v>
+      </c>
+      <c r="N16" s="4">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>85</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="8"/>
+        <v>26.984126984126984</v>
+      </c>
+      <c r="V16" s="5">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="9"/>
+        <v>255</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="10"/>
+        <v>24.590163934426229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="K17" s="6">
+        <f>SUM(K13:K16)</f>
+        <v>714</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="O17" s="6">
+        <f>SUM(O13:O16)</f>
+        <v>315</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="9"/>
+        <v>1037</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>C23/1*100</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>46</v>
+      </c>
+      <c r="H23">
+        <f>G23/99*100</f>
+        <v>46.464646464646464</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>392</v>
+      </c>
+      <c r="L23">
+        <f>K23/1001*100</f>
+        <v>39.16083916083916</v>
+      </c>
+      <c r="N23" s="4">
+        <v>3</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <f>O23/7*100</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="V23" s="5">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <f>C23+G23+K23+O23</f>
+        <v>439</v>
+      </c>
+      <c r="X23">
+        <f>W23/$W$27*100</f>
+        <v>39.620938628158846</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:D27" si="11">C24/1*100</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>20</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H27" si="12">G24/99*100</f>
+        <v>20.202020202020201</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>218</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24:L27" si="13">K24/1001*100</f>
+        <v>21.778221778221781</v>
+      </c>
+      <c r="N24" s="4">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24:P27" si="14">O24/7*100</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="5">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <f t="shared" ref="W24:W27" si="15">C24+G24+K24+O24</f>
+        <v>238</v>
+      </c>
+      <c r="X24">
+        <f t="shared" ref="X24:X27" si="16">W24/$W$27*100</f>
+        <v>21.48014440433213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B25" s="5">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>12</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="12"/>
+        <v>12.121212121212121</v>
+      </c>
+      <c r="J25" s="4">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>143</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="13"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="N25" s="4">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="14"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="V25" s="5">
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="15"/>
+        <v>156</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="16"/>
+        <v>14.079422382671481</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="F26" s="4">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>21</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="12"/>
+        <v>21.212121212121211</v>
+      </c>
+      <c r="J26" s="4">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>248</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="13"/>
+        <v>24.775224775224775</v>
+      </c>
+      <c r="N26" s="4">
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <v>5</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="14"/>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="V26" s="5">
+        <v>3</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="15"/>
+        <v>275</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="16"/>
+        <v>24.819494584837546</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="G27" s="6">
+        <f>SUM(G23:G26)</f>
+        <v>99</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="K27" s="6">
+        <f>SUM(K23:K26)</f>
+        <v>1001</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="O27" s="6">
+        <v>7</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="15"/>
+        <v>1108</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>203</v>
+      </c>
+      <c r="H33">
+        <f>G33/445*100</f>
+        <v>45.617977528089888</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <f>K33/3*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="N33" s="4">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>9</v>
+      </c>
+      <c r="P33">
+        <f>O33/15*100</f>
+        <v>60</v>
+      </c>
+      <c r="V33" s="5">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f>C33+G33+K33+O33</f>
+        <v>215</v>
+      </c>
+      <c r="X33">
+        <f>W33/$W$37*100</f>
+        <v>46.336206896551722</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>88</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34:H37" si="17">G34/445*100</f>
+        <v>19.775280898876403</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ref="L34:L37" si="18">K34/3*100</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ref="P34:P37" si="19">O34/15*100</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="V34" s="5">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <f t="shared" ref="W34:W37" si="20">C34+G34+K34+O34</f>
+        <v>89</v>
+      </c>
+      <c r="X34">
+        <f t="shared" ref="X34:X37" si="21">W34/$W$37*100</f>
+        <v>19.181034482758623</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B35" s="5">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>56</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="17"/>
+        <v>12.584269662921349</v>
+      </c>
+      <c r="J35" s="5">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="18"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="N35" s="4">
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="19"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="V35" s="5">
+        <v>2</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="20"/>
+        <v>59</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="21"/>
+        <v>12.71551724137931</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B36" s="5">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>98</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="17"/>
+        <v>22.022471910112358</v>
+      </c>
+      <c r="J36" s="5">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="4">
+        <v>3</v>
+      </c>
+      <c r="O36">
+        <v>3</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="V36" s="5">
+        <v>3</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="20"/>
+        <v>101</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="21"/>
+        <v>21.767241379310345</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="G37" s="6">
+        <f>SUM(G33:G36)</f>
+        <v>445</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="K37" s="6">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="O37" s="6">
+        <f>SUM(O33:O36)</f>
+        <v>15</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="20"/>
+        <v>464</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>57</v>
+      </c>
+      <c r="D43">
+        <f>C43/164*100</f>
+        <v>34.756097560975604</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <f>G43/13*100</f>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>50</v>
+      </c>
+      <c r="V43" s="5">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <f>C43+G43+K43</f>
+        <v>60</v>
+      </c>
+      <c r="X43">
+        <f>W43/$W$47*100</f>
+        <v>33.519553072625698</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>34</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:D47" si="22">C44/164*100</f>
+        <v>20.73170731707317</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ref="H44:H47" si="23">G44/13*100</f>
+        <v>30.76923076923077</v>
+      </c>
+      <c r="J44" s="5">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>50</v>
+      </c>
+      <c r="V44" s="5">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <f t="shared" ref="W44:W47" si="24">C44+G44+K44</f>
+        <v>39</v>
+      </c>
+      <c r="X44">
+        <f t="shared" ref="X44:X47" si="25">W44/$W$47*100</f>
+        <v>21.787709497206702</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>33</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="22"/>
+        <v>20.121951219512198</v>
+      </c>
+      <c r="F45" s="4">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="23"/>
+        <v>23.076923076923077</v>
+      </c>
+      <c r="J45" s="4">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="V45" s="5">
+        <v>2</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="24"/>
+        <v>36</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="25"/>
+        <v>20.11173184357542</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>40</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="22"/>
+        <v>24.390243902439025</v>
+      </c>
+      <c r="F46" s="4">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="23"/>
+        <v>30.76923076923077</v>
+      </c>
+      <c r="J46" s="5">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="V46" s="5">
+        <v>3</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="24"/>
+        <v>44</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="25"/>
+        <v>24.581005586592177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C47" s="6">
+        <f>SUM(C43:C46)</f>
+        <v>164</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="G47" s="6">
+        <f>SUM(G43:G46)</f>
+        <v>13</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="23"/>
+        <v>100</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>100</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="24"/>
+        <v>179</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X51" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B52" s="5">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f>C3+C13+C23</f>
+        <v>156</v>
+      </c>
+      <c r="D52">
+        <f>C52/$C$56*100</f>
+        <v>33.121019108280251</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>55</v>
+      </c>
+      <c r="H52">
+        <v>18.456375838926174</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <f>K3+G13+G23+C33</f>
+        <v>195</v>
+      </c>
+      <c r="L52">
+        <f>K52/$K$56*100</f>
+        <v>26.458616010854819</v>
+      </c>
+      <c r="N52" s="5">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f>O3+K13+K23+G33+C43</f>
+        <v>949</v>
+      </c>
+      <c r="P52">
+        <f>O52/$O$56*100</f>
+        <v>40.782122905027933</v>
+      </c>
+      <c r="R52" s="5">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f>O13+O23+K33+G43</f>
+        <v>114</v>
+      </c>
+      <c r="T52">
+        <f>S52/$S$56*100</f>
+        <v>33.727810650887577</v>
+      </c>
+      <c r="V52" s="5">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <f>S3+O33+K43</f>
+        <v>27</v>
+      </c>
+      <c r="X52">
+        <f>W52/$W$56*100</f>
+        <v>36.486486486486484</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:C56" si="26">C4+C14+C24</f>
+        <v>93</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:D56" si="27">C53/$C$56*100</f>
+        <v>19.745222929936308</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>75</v>
+      </c>
+      <c r="H53">
+        <v>25.167785234899331</v>
+      </c>
+      <c r="J53" s="5">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ref="K53:K56" si="28">K4+G14+G24+C34</f>
+        <v>205</v>
+      </c>
+      <c r="L53">
+        <f t="shared" ref="L53:L56" si="29">K53/$K$56*100</f>
+        <v>27.815468113975577</v>
+      </c>
+      <c r="N53" s="5">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <f t="shared" ref="O53:O56" si="30">O4+K14+K24+G34+C44</f>
+        <v>484</v>
+      </c>
+      <c r="P53">
+        <f t="shared" ref="P53:P56" si="31">O53/$O$56*100</f>
+        <v>20.799312419424151</v>
+      </c>
+      <c r="R53" s="5">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <f t="shared" ref="S53:S56" si="32">O14+O24+K34+G44</f>
+        <v>81</v>
+      </c>
+      <c r="T53">
+        <f t="shared" ref="T53:T56" si="33">S53/$S$56*100</f>
+        <v>23.964497041420117</v>
+      </c>
+      <c r="V53" s="5">
+        <v>1</v>
+      </c>
+      <c r="W53">
+        <f t="shared" ref="W53:W56" si="34">S4+O34+K44</f>
+        <v>11</v>
+      </c>
+      <c r="X53">
+        <f t="shared" ref="X53:X56" si="35">W53/$W$56*100</f>
+        <v>14.864864864864865</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B54" s="5">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="26"/>
+        <v>77</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="27"/>
+        <v>16.348195329087048</v>
+      </c>
+      <c r="F54" s="4">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>62</v>
+      </c>
+      <c r="H54">
+        <v>20.80536912751678</v>
+      </c>
+      <c r="J54" s="5">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="28"/>
+        <v>114</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="29"/>
+        <v>15.468113975576662</v>
+      </c>
+      <c r="N54" s="5">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="30"/>
+        <v>338</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="31"/>
+        <v>14.52513966480447</v>
+      </c>
+      <c r="R54" s="5">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="33"/>
+        <v>14.497041420118343</v>
+      </c>
+      <c r="V54" s="5">
+        <v>2</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="34"/>
+        <v>18</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="35"/>
+        <v>24.324324324324326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B55" s="5">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="26"/>
+        <v>145</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="27"/>
+        <v>30.78556263269639</v>
+      </c>
+      <c r="F55" s="4">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>106</v>
+      </c>
+      <c r="H55">
+        <v>35.570469798657719</v>
+      </c>
+      <c r="J55" s="5">
+        <v>3</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="28"/>
+        <v>223</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="29"/>
+        <v>30.257801899592945</v>
+      </c>
+      <c r="N55" s="5">
+        <v>3</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="30"/>
+        <v>556</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="31"/>
+        <v>23.893425010743446</v>
+      </c>
+      <c r="R55" s="5">
+        <v>3</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="32"/>
+        <v>94</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="33"/>
+        <v>27.810650887573964</v>
+      </c>
+      <c r="V55" s="5">
+        <v>3</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="34"/>
+        <v>18</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="35"/>
+        <v>24.324324324324326</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <f t="shared" si="26"/>
+        <v>471</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+      <c r="G56">
+        <v>298</v>
+      </c>
+      <c r="H56">
+        <v>100</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="28"/>
+        <v>737</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="29"/>
+        <v>100</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="30"/>
+        <v>2327</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="31"/>
+        <v>100</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="32"/>
+        <v>338</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="33"/>
+        <v>100</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="34"/>
+        <v>74</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="35"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B61" s="5">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <f>C52+G52+K52+O52+S52+W52</f>
+        <v>1496</v>
+      </c>
+      <c r="D61">
+        <f>C61/$C$65*100</f>
+        <v>35.241460541813893</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>375</v>
+      </c>
+      <c r="H61">
+        <v>25.737817433081673</v>
+      </c>
+      <c r="J61" s="5">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>407</v>
+      </c>
+      <c r="L61">
+        <v>39.247830279652845</v>
+      </c>
+      <c r="N61" s="5">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>439</v>
+      </c>
+      <c r="P61">
+        <v>39.620938628158846</v>
+      </c>
+      <c r="R61" s="5">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>215</v>
+      </c>
+      <c r="T61">
+        <v>46.336206896551722</v>
+      </c>
+      <c r="V61" s="5">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>60</v>
+      </c>
+      <c r="X61">
+        <v>33.519553072625698</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B62" s="5">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62:C65" si="36">C53+G53+K53+O53+S53+W53</f>
+        <v>949</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ref="D62:D65" si="37">C62/$C$65*100</f>
+        <v>22.355712603062429</v>
+      </c>
+      <c r="F62" s="5">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>360</v>
+      </c>
+      <c r="H62">
+        <v>24.708304735758407</v>
+      </c>
+      <c r="J62" s="5">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>223</v>
+      </c>
+      <c r="L62">
+        <v>21.504339440694313</v>
+      </c>
+      <c r="N62" s="5">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>238</v>
+      </c>
+      <c r="P62">
+        <v>21.48014440433213</v>
+      </c>
+      <c r="R62" s="5">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>89</v>
+      </c>
+      <c r="T62">
+        <v>19.181034482758623</v>
+      </c>
+      <c r="V62" s="5">
+        <v>1</v>
+      </c>
+      <c r="W62">
+        <v>39</v>
+      </c>
+      <c r="X62">
+        <v>21.787709497206702</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B63" s="5">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="36"/>
+        <v>658</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="37"/>
+        <v>15.500588928150766</v>
+      </c>
+      <c r="F63" s="5">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>255</v>
+      </c>
+      <c r="H63">
+        <v>17.50171585449554</v>
+      </c>
+      <c r="J63" s="5">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>152</v>
+      </c>
+      <c r="L63">
+        <v>14.657666345226616</v>
+      </c>
+      <c r="N63" s="5">
+        <v>2</v>
+      </c>
+      <c r="O63">
+        <v>156</v>
+      </c>
+      <c r="P63">
+        <v>14.079422382671481</v>
+      </c>
+      <c r="R63" s="5">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>59</v>
+      </c>
+      <c r="T63">
+        <v>12.71551724137931</v>
+      </c>
+      <c r="V63" s="5">
+        <v>2</v>
+      </c>
+      <c r="W63">
+        <v>36</v>
+      </c>
+      <c r="X63">
+        <v>20.11173184357542</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B64" s="5">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="36"/>
+        <v>1142</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="37"/>
+        <v>26.902237926972912</v>
+      </c>
+      <c r="F64" s="5">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>467</v>
+      </c>
+      <c r="H64">
+        <v>32.052161976664379</v>
+      </c>
+      <c r="J64" s="5">
+        <v>3</v>
+      </c>
+      <c r="K64">
+        <v>255</v>
+      </c>
+      <c r="L64">
+        <v>24.590163934426229</v>
+      </c>
+      <c r="N64" s="5">
+        <v>3</v>
+      </c>
+      <c r="O64">
+        <v>275</v>
+      </c>
+      <c r="P64">
+        <v>24.819494584837546</v>
+      </c>
+      <c r="R64" s="5">
+        <v>3</v>
+      </c>
+      <c r="S64">
+        <v>101</v>
+      </c>
+      <c r="T64">
+        <v>21.767241379310345</v>
+      </c>
+      <c r="V64" s="5">
+        <v>3</v>
+      </c>
+      <c r="W64">
+        <v>44</v>
+      </c>
+      <c r="X64">
+        <v>24.581005586592177</v>
+      </c>
+    </row>
+    <row r="65" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <f t="shared" si="36"/>
+        <v>4245</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="37"/>
+        <v>100</v>
+      </c>
+      <c r="G65">
+        <v>1457</v>
+      </c>
+      <c r="H65">
+        <v>100</v>
+      </c>
+      <c r="K65">
+        <v>1037</v>
+      </c>
+      <c r="L65">
+        <v>100</v>
+      </c>
+      <c r="O65">
+        <v>1108</v>
+      </c>
+      <c r="P65">
+        <v>100</v>
+      </c>
+      <c r="S65">
+        <v>464</v>
+      </c>
+      <c r="T65">
+        <v>100</v>
+      </c>
+      <c r="W65">
+        <v>179</v>
+      </c>
+      <c r="X65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R69" s="5">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <f>S61+W61</f>
+        <v>275</v>
+      </c>
+      <c r="T69">
+        <f>S69/$S$73*100</f>
+        <v>42.768273716951789</v>
+      </c>
+    </row>
+    <row r="70" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R70" s="5">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <f t="shared" ref="S70:S73" si="38">S62+W62</f>
+        <v>128</v>
+      </c>
+      <c r="T70">
+        <f t="shared" ref="T70:T73" si="39">S70/$S$73*100</f>
+        <v>19.906687402799378</v>
+      </c>
+    </row>
+    <row r="71" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R71" s="5">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="38"/>
+        <v>95</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="39"/>
+        <v>14.774494556765164</v>
+      </c>
+    </row>
+    <row r="72" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R72" s="5">
+        <v>3</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="38"/>
+        <v>145</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="39"/>
+        <v>22.55054432348367</v>
+      </c>
+    </row>
+    <row r="73" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="S73">
+        <f t="shared" si="38"/>
+        <v>643</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="39"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>